--- a/biology/Zoologie/Charybdis/Charybdis.xlsx
+++ b/biology/Zoologie/Charybdis/Charybdis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charybdis est  un genre de crabes de la famille des Portunidae. Son nom provient du monstre marin mythologique Charybde.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2015) :
 Sous-genre Charybdis (Charybdis) de Haan, 1833
 Charybdis acuta (A. Milne-Edwards, 1869) 
 Charybdis acutidens Türkay, 1986 
@@ -624,7 +638,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>de Haan, 1833 : Crustacea. in Fauna Japonica sive Descriptio Animalium, Quae in Itinere per Japoniam, Jussu et Auspiciis Superiorum, qui Summum in India Batava Imperium Tenent, Suscepto, Annis 1823–1830 Collegit, Noitis, Observationibus et Adumbrationibus Illustravit. p. 1–243.</t>
         </is>
